--- a/ExcelBookTest.xlsx
+++ b/ExcelBookTest.xlsx
@@ -16,12 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -41,6 +35,12 @@
   </si>
   <si>
     <t>FirstTitle</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
   </si>
 </sst>
 </file>
@@ -382,28 +382,28 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,10 +422,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>

--- a/ExcelBookTest.xlsx
+++ b/ExcelBookTest.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -35,12 +41,6 @@
   </si>
   <si>
     <t>FirstTitle</t>
-  </si>
-  <si>
-    <t>Second</t>
-  </si>
-  <si>
-    <t>Third</t>
   </si>
 </sst>
 </file>
@@ -382,28 +382,28 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,10 +422,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>

--- a/ExcelBookTest.xlsx
+++ b/ExcelBookTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
   <si>
     <t>a</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Third</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +434,226 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
